--- a/sokets/consecutivos/concentrado de rpv.xlsx
+++ b/sokets/consecutivos/concentrado de rpv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\Node\restsever\sokets\consecutivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5FBF28-52ED-48B2-BB17-180660B7E802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6244F014-A095-4C8E-9DDF-2046B3E44002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DC4FF23-157D-46C6-BC23-49F6E26879AA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1223">
   <si>
     <t>0043-0001-22</t>
   </si>
@@ -3502,6 +3502,207 @@
   </si>
   <si>
     <t xml:space="preserve">GRUPO AGUACATERO MEXICANO, S. DE R.L. DE C.V. </t>
+  </si>
+  <si>
+    <t>0392-0001-22</t>
+  </si>
+  <si>
+    <t>SENASICA A615737</t>
+  </si>
+  <si>
+    <t>FILOMENA BORJA VELASQUEZ</t>
+  </si>
+  <si>
+    <t>0392-0002-22</t>
+  </si>
+  <si>
+    <t>SENASICA A615740</t>
+  </si>
+  <si>
+    <t>0392-0003-22</t>
+  </si>
+  <si>
+    <t>SENASICA A615741</t>
+  </si>
+  <si>
+    <t>0392-0004-22</t>
+  </si>
+  <si>
+    <t>SENASICA A615742</t>
+  </si>
+  <si>
+    <t>0392-0005-22</t>
+  </si>
+  <si>
+    <t>SENASICA A615743</t>
+  </si>
+  <si>
+    <t>0392-0006-22</t>
+  </si>
+  <si>
+    <t>SENASICA A615744</t>
+  </si>
+  <si>
+    <t>DEL MONTE GRUPO COMERCIAL S.A DE C.V</t>
+  </si>
+  <si>
+    <t>0019-0001-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 555168</t>
+  </si>
+  <si>
+    <t>ANA BELEM ORTIZ VARGAS</t>
+  </si>
+  <si>
+    <t>0019-0002-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 555169</t>
+  </si>
+  <si>
+    <t>PROMOTORA MEXICANA GAYTAN SA DE CV</t>
+  </si>
+  <si>
+    <t>0074-0001-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 558963</t>
+  </si>
+  <si>
+    <t>0074-0002-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 558964</t>
+  </si>
+  <si>
+    <t>0074-0003-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 558965</t>
+  </si>
+  <si>
+    <t>0074-0004-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 558966</t>
+  </si>
+  <si>
+    <t>0074-0005-22</t>
+  </si>
+  <si>
+    <t>0074-0006-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 558967</t>
+  </si>
+  <si>
+    <t>0074-0007-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 558968</t>
+  </si>
+  <si>
+    <t>0074-0008-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 558969</t>
+  </si>
+  <si>
+    <t>0074-0009-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 558970</t>
+  </si>
+  <si>
+    <t>FRUTIVAL, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>0007-0001-22</t>
+  </si>
+  <si>
+    <t>SENASICA A614344</t>
+  </si>
+  <si>
+    <t>0007-0002-22</t>
+  </si>
+  <si>
+    <t>SENASICA A614345</t>
+  </si>
+  <si>
+    <t>0007-0003-22</t>
+  </si>
+  <si>
+    <t>SENASICA A614346</t>
+  </si>
+  <si>
+    <t>0007-0004-22</t>
+  </si>
+  <si>
+    <t>SENASICA A614347</t>
+  </si>
+  <si>
+    <t>0007-0005-22</t>
+  </si>
+  <si>
+    <t>SENASICA A614348</t>
+  </si>
+  <si>
+    <t>0007-0006-22</t>
+  </si>
+  <si>
+    <t>SENASICA A614349</t>
+  </si>
+  <si>
+    <t>GRUPO WETS PAK DE MEXICO, S. DE R.L. DE C.V.</t>
+  </si>
+  <si>
+    <t>0010-0001-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 612064</t>
+  </si>
+  <si>
+    <t>0010-0002-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 612065</t>
+  </si>
+  <si>
+    <t>0010-0003-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 612066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEVI AGUACATES DE CALIDAD </t>
+  </si>
+  <si>
+    <t>0057-0001-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 557176</t>
+  </si>
+  <si>
+    <t>0057-0002-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 557177</t>
+  </si>
+  <si>
+    <t>0057-0003-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 557178</t>
+  </si>
+  <si>
+    <t>0057-0004-22</t>
+  </si>
+  <si>
+    <t>SENASICA A 557179</t>
+  </si>
+  <si>
+    <t>FRUTICOLA VELO   S.A. DE C.V. (JICALAN)</t>
   </si>
 </sst>
 </file>
@@ -3854,18 +4055,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA11ED1-3170-4BDC-8BB1-CD78CE8FE885}">
-  <dimension ref="A1:G560"/>
+  <dimension ref="A1:G590"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
+      <selection activeCell="C561" sqref="C561:C590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16201,7 +16403,7 @@
         <v>1071</v>
       </c>
       <c r="G514" t="str">
-        <f t="shared" ref="G514:G560" si="8">TEXT(C514,"dd/mm/aaaa")</f>
+        <f t="shared" ref="G514:G578" si="8">TEXT(C514,"dd/mm/aaaa")</f>
         <v>03/01/2022</v>
       </c>
     </row>
@@ -17307,6 +17509,726 @@
       <c r="G560" t="str">
         <f t="shared" si="8"/>
         <v>09/01/2022</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C561" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D561" t="s">
+        <v>2</v>
+      </c>
+      <c r="E561" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G561" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C562" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D562" t="s">
+        <v>2</v>
+      </c>
+      <c r="E562" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F562" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G562" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C563" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D563" t="s">
+        <v>2</v>
+      </c>
+      <c r="E563" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G563" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C564" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D564" t="s">
+        <v>2</v>
+      </c>
+      <c r="E564" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F564" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G564" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C565" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D565" t="s">
+        <v>2</v>
+      </c>
+      <c r="E565" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F565" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G565" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C566" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D566" t="s">
+        <v>2</v>
+      </c>
+      <c r="E566" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G566" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C567" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D567" t="s">
+        <v>2</v>
+      </c>
+      <c r="E567" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F567" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G567" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C568" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D568" t="s">
+        <v>2</v>
+      </c>
+      <c r="E568" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F568" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G568" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C569" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D569" t="s">
+        <v>2</v>
+      </c>
+      <c r="E569" t="s">
+        <v>231</v>
+      </c>
+      <c r="F569" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G569" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C570" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D570" t="s">
+        <v>2</v>
+      </c>
+      <c r="E570" t="s">
+        <v>231</v>
+      </c>
+      <c r="F570" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G570" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C571" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D571" t="s">
+        <v>2</v>
+      </c>
+      <c r="E571" t="s">
+        <v>231</v>
+      </c>
+      <c r="F571" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G571" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C572" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D572" t="s">
+        <v>2</v>
+      </c>
+      <c r="E572" t="s">
+        <v>231</v>
+      </c>
+      <c r="F572" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G572" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B573" t="s">
+        <v>15</v>
+      </c>
+      <c r="C573" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D573" t="s">
+        <v>271</v>
+      </c>
+      <c r="E573" t="s">
+        <v>231</v>
+      </c>
+      <c r="F573" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G573" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C574" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D574" t="s">
+        <v>2</v>
+      </c>
+      <c r="E574" t="s">
+        <v>231</v>
+      </c>
+      <c r="F574" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G574" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C575" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D575" t="s">
+        <v>2</v>
+      </c>
+      <c r="E575" t="s">
+        <v>231</v>
+      </c>
+      <c r="F575" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G575" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C576" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D576" t="s">
+        <v>2</v>
+      </c>
+      <c r="E576" t="s">
+        <v>231</v>
+      </c>
+      <c r="F576" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G576" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C577" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D577" t="s">
+        <v>2</v>
+      </c>
+      <c r="E577" t="s">
+        <v>231</v>
+      </c>
+      <c r="F577" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G577" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C578" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D578" t="s">
+        <v>2</v>
+      </c>
+      <c r="E578" t="s">
+        <v>962</v>
+      </c>
+      <c r="F578" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G578" t="str">
+        <f t="shared" si="8"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C579" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D579" t="s">
+        <v>2</v>
+      </c>
+      <c r="E579" t="s">
+        <v>962</v>
+      </c>
+      <c r="F579" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G579" t="str">
+        <f t="shared" ref="G579:G590" si="9">TEXT(C579,"dd/mm/aaaa")</f>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C580" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D580" t="s">
+        <v>2</v>
+      </c>
+      <c r="E580" t="s">
+        <v>962</v>
+      </c>
+      <c r="F580" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G580" t="str">
+        <f t="shared" si="9"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C581" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D581" t="s">
+        <v>2</v>
+      </c>
+      <c r="E581" t="s">
+        <v>962</v>
+      </c>
+      <c r="F581" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G581" t="str">
+        <f t="shared" si="9"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C582" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D582" t="s">
+        <v>2</v>
+      </c>
+      <c r="E582" t="s">
+        <v>962</v>
+      </c>
+      <c r="F582" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G582" t="str">
+        <f t="shared" si="9"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C583" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D583" t="s">
+        <v>2</v>
+      </c>
+      <c r="E583" t="s">
+        <v>962</v>
+      </c>
+      <c r="F583" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G583" t="str">
+        <f t="shared" si="9"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C584" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D584" t="s">
+        <v>2</v>
+      </c>
+      <c r="E584" t="s">
+        <v>299</v>
+      </c>
+      <c r="F584" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G584" t="str">
+        <f t="shared" si="9"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C585" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D585" t="s">
+        <v>2</v>
+      </c>
+      <c r="E585" t="s">
+        <v>299</v>
+      </c>
+      <c r="F585" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G585" t="str">
+        <f t="shared" si="9"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C586" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D586" t="s">
+        <v>2</v>
+      </c>
+      <c r="E586" t="s">
+        <v>299</v>
+      </c>
+      <c r="F586" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G586" t="str">
+        <f t="shared" si="9"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C587" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D587" t="s">
+        <v>2</v>
+      </c>
+      <c r="E587" t="s">
+        <v>206</v>
+      </c>
+      <c r="F587" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G587" t="str">
+        <f t="shared" si="9"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C588" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D588" t="s">
+        <v>2</v>
+      </c>
+      <c r="E588" t="s">
+        <v>206</v>
+      </c>
+      <c r="F588" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G588" t="str">
+        <f t="shared" si="9"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C589" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D589" t="s">
+        <v>2</v>
+      </c>
+      <c r="E589" t="s">
+        <v>206</v>
+      </c>
+      <c r="F589" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G589" t="str">
+        <f t="shared" si="9"/>
+        <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C590" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D590" t="s">
+        <v>2</v>
+      </c>
+      <c r="E590" t="s">
+        <v>206</v>
+      </c>
+      <c r="F590" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G590" t="str">
+        <f t="shared" si="9"/>
+        <v>02/01/2022</v>
       </c>
     </row>
   </sheetData>

--- a/sokets/consecutivos/concentrado de rpv.xlsx
+++ b/sokets/consecutivos/concentrado de rpv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\Node\restsever\sokets\consecutivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6244F014-A095-4C8E-9DDF-2046B3E44002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368815A1-26C7-4E55-BC48-B014A1D98F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DC4FF23-157D-46C6-BC23-49F6E26879AA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1230">
   <si>
     <t>0043-0001-22</t>
   </si>
@@ -3703,6 +3703,27 @@
   </si>
   <si>
     <t>FRUTICOLA VELO   S.A. DE C.V. (JICALAN)</t>
+  </si>
+  <si>
+    <t>0263-0001-22</t>
+  </si>
+  <si>
+    <t>SUSTITUYE AL 1837</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>SALVADOR ZAVALA</t>
+  </si>
+  <si>
+    <t>0263-0002-22</t>
+  </si>
+  <si>
+    <t>SUSTITUYE AL 1838</t>
+  </si>
+  <si>
+    <t>CALAVO DE MEXICO SA DE CV</t>
   </si>
 </sst>
 </file>
@@ -4055,10 +4076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA11ED1-3170-4BDC-8BB1-CD78CE8FE885}">
-  <dimension ref="A1:G590"/>
+  <dimension ref="A1:G592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
-      <selection activeCell="C561" sqref="C561:C590"/>
+    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
+      <selection activeCell="E596" sqref="E596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17963,7 +17984,7 @@
         <v>1206</v>
       </c>
       <c r="G579" t="str">
-        <f t="shared" ref="G579:G590" si="9">TEXT(C579,"dd/mm/aaaa")</f>
+        <f t="shared" ref="G579:G592" si="9">TEXT(C579,"dd/mm/aaaa")</f>
         <v>02/01/2022</v>
       </c>
     </row>
@@ -18229,6 +18250,54 @@
       <c r="G590" t="str">
         <f t="shared" si="9"/>
         <v>02/01/2022</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C591" s="1">
+        <v>44576</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F591" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G591" t="str">
+        <f t="shared" si="9"/>
+        <v>15/01/2022</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C592" s="1">
+        <v>44576</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F592" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G592" t="str">
+        <f t="shared" si="9"/>
+        <v>15/01/2022</v>
       </c>
     </row>
   </sheetData>
